--- a/demo/Data_X.xlsx
+++ b/demo/Data_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,117 +436,137 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dim 1</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>dim 2</t>
+          <t>dim_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>dim 3</t>
+          <t>dim_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dim 4</t>
+          <t>dim_3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dim_4</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>x_0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x_1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>-0.362</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.517</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.194</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.426</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>x_1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>x_2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>-0.455</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-0.321</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1.636</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.396</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>x_2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x_3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1.121</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-0.262</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.247</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.647</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>x_3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x_4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>-0.115</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.254</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.376</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.457</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>x_4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>x_5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>-0.49</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-0.312</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.694</v>
       </c>
     </row>
